--- a/Source/locationdata.xlsx
+++ b/Source/locationdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2227180cd231e55/Github/pages/timholthuijsen.github.io/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2227180cd231e55/Github/team-tumbleweed-data-analysis.github.io/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E5388B7BD389B8BC7DB466563351E131A16E8CF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{638E8FE5-44F0-49BE-81F7-22B0FA4E3D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4392" yWindow="1284" windowWidth="17280" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="1932" windowWidth="17280" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>James Kingsnorth</t>
+  </si>
+  <si>
+    <t>2022/03/09 20:31 p.m. EET</t>
+  </si>
+  <si>
+    <t>Michael Sandrieser</t>
+  </si>
+  <si>
+    <t>2022/03/09 22:318 p.m. EET</t>
+  </si>
+  <si>
+    <t>Yara Eggenfellner</t>
+  </si>
+  <si>
+    <t>2022/03/19 15:50 pm EET</t>
+  </si>
+  <si>
+    <t>Anisha Nookala</t>
   </si>
 </sst>
 </file>
@@ -234,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -246,6 +264,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -465,15 +486,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,10 +729,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="5">
-        <v>47.431482265075999</v>
+        <v>47.507097309206401</v>
       </c>
       <c r="D17" s="5">
-        <v>19.095643207523</v>
+        <v>19.045761646602401</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -756,9 +777,48 @@
         <v>4.9613870000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5">
+        <v>46.726614175484897</v>
+      </c>
+      <c r="D21" s="6">
+        <v>14.0912021524554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5">
+        <v>48.210922022451697</v>
+      </c>
+      <c r="D22" s="5">
+        <v>16.314243956032001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5">
+        <v>48.205603000000004</v>
+      </c>
+      <c r="D23" s="5">
+        <v>16.365772</v>
+      </c>
+    </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
